--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E89637-52BC-4AE2-B875-BFD7E97D39C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9D887-4CF7-4450-B668-5792EE3A952E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,49 +172,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,197 +538,197 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="14">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="15">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="16">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>78.44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <v>78.13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <v>77.52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
         <v>79.19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="17">
         <v>20</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
+      <c r="A22" s="18">
         <v>25</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -749,7 +749,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -771,187 +771,191 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="14">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="8">
+        <v>95.32</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="8">
+        <v>95.71</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
         <v>95.63</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>95.57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>95.34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>94.77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="9">
         <v>94.97</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>95.78</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>95.71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>96.34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="17">
         <v>10</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="11">
         <v>95.29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="11">
         <v>95.34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="11">
         <v>94.94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>96.03</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="11">
         <v>95.68</v>
       </c>
     </row>
@@ -964,6 +968,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9D887-4CF7-4450-B668-5792EE3A952E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321D202-6F17-4F15-AEEE-388A69ACBAC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -877,21 +877,27 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>95.31</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>96.41</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>96.16</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321D202-6F17-4F15-AEEE-388A69ACBAC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AB763-3B89-49B4-8D2C-739FC1179518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>n_estimators</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>[5|SR: 0.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3|SR: 0.3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +753,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -904,7 +908,12 @@
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10">
+        <v>95.77</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AB763-3B89-49B4-8D2C-739FC1179518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F5B6D6-98DA-4C04-86FF-E2C7D232E239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
   <si>
     <t>n_estimators</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -204,6 +204,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -501,16 +513,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.640625" customWidth="1"/>
+    <col min="2" max="2" width="33.2109375" customWidth="1"/>
+    <col min="3" max="4" width="20.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>99.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>99.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>99.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>99.13</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
+        <v>20</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -542,7 +738,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="18">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -551,35 +747,35 @@
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="19">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -588,35 +784,35 @@
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="20">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -627,7 +823,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -636,7 +832,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -645,7 +841,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -654,14 +850,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="21">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -670,35 +866,35 @@
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="22">
         <v>25</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -707,28 +903,28 @@
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
@@ -752,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE554D5-C233-4CD7-B4A5-4FBD140450F0}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -775,7 +971,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="18">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -786,7 +982,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,7 +991,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -804,7 +1000,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -816,7 +1012,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -825,7 +1021,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -836,7 +1032,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -845,7 +1041,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -854,7 +1050,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
@@ -866,7 +1062,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -875,7 +1071,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="20">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -886,7 +1082,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -895,7 +1091,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -904,7 +1100,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -916,7 +1112,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -925,7 +1121,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="21">
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -936,7 +1132,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
@@ -945,7 +1141,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
@@ -954,7 +1150,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
@@ -966,7 +1162,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F5B6D6-98DA-4C04-86FF-E2C7D232E239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3C643B-479F-492C-8728-CC212C37104B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -581,7 +581,9 @@
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>99.22</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
@@ -619,7 +621,9 @@
       <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>99.25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
@@ -657,7 +661,9 @@
       <c r="B16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10">
+        <v>99.28</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -666,14 +672,18 @@
       <c r="B17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="11">
+        <v>99.23</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>99.52</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
@@ -695,7 +705,9 @@
       <c r="B21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11">
+        <v>99.32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3C643B-479F-492C-8728-CC212C37104B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374FEBF8-117A-4BF8-B5A2-49DCB7A5212A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -592,21 +592,27 @@
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>99.24</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9">
+        <v>99.47</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9">
+        <v>99.52</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
@@ -632,7 +638,9 @@
       <c r="B12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>99.2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
@@ -690,7 +698,9 @@
       <c r="B19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>99.54</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
@@ -961,7 +971,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:D21"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374FEBF8-117A-4BF8-B5A2-49DCB7A5212A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233E112-CEFE-4718-BACB-E4576D79BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -647,14 +647,18 @@
       <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>99.51</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>99.52</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
@@ -971,7 +975,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233E112-CEFE-4718-BACB-E4576D79BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1233E112-CEFE-4718-BACB-E4576D79BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F33E2E55-0578-433D-AD4D-5BCC1CFDDE23}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
   <si>
     <t>n_estimators</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,7 +109,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,12 +146,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -185,9 +179,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -200,9 +191,6 @@
     <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -228,9 +216,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -538,188 +523,188 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="16">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>99.16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>99.47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>99.47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
         <v>99.13</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>99.22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>99.24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>99.47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>99.52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>99.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>15</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>99.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>99.51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>99.52</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>99.28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>20</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>99.23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>99.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>99.54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>99.32</v>
       </c>
     </row>
@@ -738,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A6CF2-7CA3-499F-B53E-A7EB25D6E670}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
@@ -764,205 +749,199 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7">
+        <v>78.260000000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7">
+        <v>77.709999999999994</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7">
+        <v>77.150000000000006</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7">
+        <v>77.28</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7">
+        <v>70.83</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8">
+        <v>78.790000000000006</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8">
+        <v>78.22</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8">
+        <v>77.319999999999993</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8">
+        <v>78.88</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8">
+        <v>70.69</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>78.44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>78.13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>77.52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>79.19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9">
+        <v>70.06</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10">
+        <v>78.73</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10">
+        <v>77.849999999999994</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10">
+        <v>78.599999999999994</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="22">
-        <v>25</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="12"/>
+      <c r="C21" s="10">
+        <v>70.37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,202 +976,202 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>95.32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>95.71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>95.63</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>95.57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>95.34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>94.77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>94.97</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>95.78</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>95.71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>95.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>96.41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>96.16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>95.77</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>96.34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>95.29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>95.34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>94.94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>96.03</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>95.68</v>
       </c>
     </row>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1233E112-CEFE-4718-BACB-E4576D79BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F33E2E55-0578-433D-AD4D-5BCC1CFDDE23}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1233E112-CEFE-4718-BACB-E4576D79BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F29AE01C-B237-4DA9-B854-8B599B35847A}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="12">
   <si>
     <t>n_estimators</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -192,6 +192,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -500,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -523,7 +535,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="20">
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -534,7 +546,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
@@ -543,7 +555,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
@@ -552,7 +564,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -562,7 +574,7 @@
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -571,7 +583,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="21">
         <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -582,7 +594,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
@@ -591,7 +603,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
@@ -600,15 +612,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>99.53</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
@@ -617,7 +631,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="22">
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -628,7 +642,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
@@ -637,7 +651,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -646,15 +660,17 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9">
+        <v>99.51</v>
+      </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
@@ -663,7 +679,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="19">
+      <c r="A17" s="23">
         <v>20</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -674,7 +690,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
@@ -683,7 +699,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
@@ -692,15 +708,17 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>99.43</v>
+      </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
@@ -725,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A6CF2-7CA3-499F-B53E-A7EB25D6E670}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
@@ -749,7 +767,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="20">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -760,7 +778,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,7 +787,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,7 +796,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -787,7 +805,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -796,7 +814,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="21">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -807,7 +825,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -816,7 +834,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -825,7 +843,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
@@ -834,7 +852,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -843,7 +861,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="22">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -854,7 +872,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -863,7 +881,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -872,7 +890,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -881,7 +899,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -890,7 +908,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="19">
+      <c r="A17" s="23">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -901,7 +919,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
@@ -910,7 +928,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
@@ -919,7 +937,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
@@ -928,7 +946,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
@@ -954,7 +972,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -976,7 +994,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="20">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -987,7 +1005,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1014,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1023,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +1035,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1044,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1037,7 +1055,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1064,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1073,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1085,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1094,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="22">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1087,7 +1105,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1114,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1123,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1135,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1144,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="19">
+      <c r="A17" s="23">
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1137,7 +1155,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1164,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1173,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1185,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1190,14 +1208,189 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED1B4D-1FC9-49CC-974D-A069222E61B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.640625" customWidth="1"/>
+    <col min="2" max="2" width="33.2109375" customWidth="1"/>
+    <col min="3" max="4" width="20.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="20">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>7</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1233E112-CEFE-4718-BACB-E4576D79BAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F29AE01C-B237-4DA9-B854-8B599B35847A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949A99C-FDF2-C544-B6BF-762103C8BB8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="1840" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,18 +512,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.640625" customWidth="1"/>
-    <col min="2" max="2" width="33.2109375" customWidth="1"/>
-    <col min="3" max="4" width="20.640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="20">
         <v>5</v>
       </c>
@@ -545,7 +545,7 @@
         <v>99.16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="20"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
@@ -554,7 +554,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="20"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -563,7 +563,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="20"/>
       <c r="B5" s="12" t="s">
         <v>5</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -582,7 +582,7 @@
         <v>99.22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="20">
       <c r="A7" s="21">
         <v>10</v>
       </c>
@@ -593,7 +593,7 @@
         <v>99.24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="21"/>
       <c r="B8" s="13" t="s">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="20">
       <c r="A9" s="21"/>
       <c r="B9" s="13" t="s">
         <v>4</v>
@@ -611,7 +611,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="20">
       <c r="A10" s="21"/>
       <c r="B10" s="13" t="s">
         <v>5</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="20">
       <c r="A11" s="21"/>
       <c r="B11" s="13" t="s">
         <v>6</v>
@@ -630,7 +630,7 @@
         <v>99.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="20">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -641,7 +641,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="20">
       <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -650,7 +650,7 @@
         <v>99.51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="20">
       <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
@@ -659,7 +659,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="20">
       <c r="A15" s="22"/>
       <c r="B15" s="14" t="s">
         <v>5</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="20">
       <c r="A16" s="22"/>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -678,7 +678,7 @@
         <v>99.28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="20">
       <c r="A17" s="23">
         <v>20</v>
       </c>
@@ -689,7 +689,7 @@
         <v>99.23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="20">
       <c r="A18" s="23"/>
       <c r="B18" s="15" t="s">
         <v>3</v>
@@ -698,7 +698,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="20">
       <c r="A19" s="23"/>
       <c r="B19" s="15" t="s">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>99.54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="20">
       <c r="A20" s="23"/>
       <c r="B20" s="15" t="s">
         <v>5</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="20">
       <c r="A21" s="23"/>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -747,15 +747,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.2109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="20">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
         <v>78.260000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>77.709999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -795,7 +795,7 @@
         <v>77.150000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -804,7 +804,7 @@
         <v>77.28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -813,7 +813,7 @@
         <v>70.83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="21">
         <v>10</v>
       </c>
@@ -824,7 +824,7 @@
         <v>78.790000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -833,7 +833,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -842,7 +842,7 @@
         <v>77.319999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -860,7 +860,7 @@
         <v>70.69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -871,7 +871,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>78.13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -889,7 +889,7 @@
         <v>77.52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -898,7 +898,7 @@
         <v>79.19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -907,7 +907,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="23">
         <v>20</v>
       </c>
@@ -918,7 +918,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -927,7 +927,7 @@
         <v>78.73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -936,7 +936,7 @@
         <v>77.849999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
@@ -972,17 +972,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:XFD1048576"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.640625" customWidth="1"/>
-    <col min="2" max="2" width="33.2109375" customWidth="1"/>
-    <col min="3" max="4" width="20.640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>95.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1013,7 +1013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
         <v>95.71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         <v>95.57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="20">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1063,7 +1063,7 @@
         <v>94.77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="20">
       <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>94.97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="20">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="20">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1093,7 +1093,7 @@
         <v>95.71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="20">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>95.31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="20">
       <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -1113,7 +1113,7 @@
         <v>96.41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="20">
       <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -1122,7 +1122,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="20">
       <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -1134,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="20">
       <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -1143,7 +1143,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="20">
       <c r="A17" s="23">
         <v>10</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>95.29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="20">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -1163,7 +1163,7 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="20">
       <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -1172,7 +1172,7 @@
         <v>94.94</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="20">
       <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="20">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
@@ -1210,18 +1210,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED1B4D-1FC9-49CC-974D-A069222E61B9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.640625" customWidth="1"/>
-    <col min="2" max="2" width="33.2109375" customWidth="1"/>
-    <col min="3" max="4" width="20.640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,30 +1232,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="20">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="7">
+        <v>77.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="20"/>
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="20"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="20"/>
       <c r="B5" s="16" t="s">
         <v>5</v>
@@ -1263,14 +1265,14 @@
       <c r="C5" s="7"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="20"/>
       <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="20">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -1279,21 +1281,21 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="20">
       <c r="A9" s="21"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="20">
       <c r="A10" s="21"/>
       <c r="B10" s="17" t="s">
         <v>5</v>
@@ -1301,14 +1303,14 @@
       <c r="C10" s="8"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="20">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="20">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -1317,21 +1319,21 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="20">
       <c r="A13" s="22"/>
       <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="20">
       <c r="A14" s="22"/>
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="20">
       <c r="A15" s="22"/>
       <c r="B15" s="18" t="s">
         <v>5</v>
@@ -1339,14 +1341,14 @@
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="20">
       <c r="A16" s="22"/>
       <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="20">
       <c r="A17" s="23">
         <v>10</v>
       </c>
@@ -1355,21 +1357,21 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="20">
       <c r="A18" s="23"/>
       <c r="B18" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="20">
       <c r="A19" s="23"/>
       <c r="B19" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="20">
       <c r="A20" s="23"/>
       <c r="B20" s="19" t="s">
         <v>5</v>
@@ -1377,7 +1379,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="20">
       <c r="A21" s="23"/>
       <c r="B21" s="19" t="s">
         <v>6</v>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949A99C-FDF2-C544-B6BF-762103C8BB8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE1881-F507-4687-A9E7-38FD43ED34CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1840" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,14 +516,14 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.640625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="4" width="20.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>5</v>
       </c>
@@ -545,7 +545,7 @@
         <v>99.16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20">
+    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="12" t="s">
         <v>3</v>
@@ -554,7 +554,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20">
+    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -563,7 +563,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20">
+    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="12" t="s">
         <v>5</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="20">
+    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
         <v>6</v>
@@ -582,7 +582,7 @@
         <v>99.22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20">
+    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>10</v>
       </c>
@@ -593,7 +593,7 @@
         <v>99.24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20">
+    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="13" t="s">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20">
+    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="13" t="s">
         <v>4</v>
@@ -611,7 +611,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20">
+    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="13" t="s">
         <v>5</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="20">
+    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="13" t="s">
         <v>6</v>
@@ -630,7 +630,7 @@
         <v>99.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20">
+    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -641,7 +641,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20">
+    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -650,7 +650,7 @@
         <v>99.51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20">
+    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
@@ -659,7 +659,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20">
+    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="14" t="s">
         <v>5</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="20">
+    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -678,7 +678,7 @@
         <v>99.28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20">
+    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>20</v>
       </c>
@@ -689,7 +689,7 @@
         <v>99.23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20">
+    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="15" t="s">
         <v>3</v>
@@ -698,7 +698,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20">
+    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="15" t="s">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>99.54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20">
+    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="15" t="s">
         <v>5</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="20">
+    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -747,15 +747,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="20.640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
         <v>78.260000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>77.709999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -795,7 +795,7 @@
         <v>77.150000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -804,7 +804,7 @@
         <v>77.28</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -813,7 +813,7 @@
         <v>70.83</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>10</v>
       </c>
@@ -824,7 +824,7 @@
         <v>78.790000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -833,7 +833,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -842,7 +842,7 @@
         <v>77.319999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -860,7 +860,7 @@
         <v>70.69</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -871,7 +871,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>78.13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -889,7 +889,7 @@
         <v>77.52</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -898,7 +898,7 @@
         <v>79.19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -907,7 +907,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>20</v>
       </c>
@@ -918,7 +918,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -927,7 +927,7 @@
         <v>78.73</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -936,7 +936,7 @@
         <v>77.849999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
@@ -975,14 +975,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.640625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="4" width="20.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>95.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20">
+    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1013,7 +1013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20">
+    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
         <v>95.71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20">
+    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20">
+    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         <v>95.57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20">
+    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20">
+    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1063,7 +1063,7 @@
         <v>94.77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20">
+    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>94.97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20">
+    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20">
+    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1093,7 +1093,7 @@
         <v>95.71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20">
+    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>95.31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20">
+    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -1113,7 +1113,7 @@
         <v>96.41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20">
+    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -1122,7 +1122,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20">
+    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -1134,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20">
+    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -1143,7 +1143,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20">
+    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>10</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>95.29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20">
+    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -1163,7 +1163,7 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20">
+    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -1172,7 +1172,7 @@
         <v>94.94</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20">
+    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20">
+    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
@@ -1210,18 +1210,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED1B4D-1FC9-49CC-974D-A069222E61B9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.640625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="4" width="20.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:4" ht="19.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -1243,21 +1243,21 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20">
+    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="20">
+    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="20">
+    <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="16" t="s">
         <v>5</v>
@@ -1265,37 +1265,39 @@
       <c r="C5" s="7"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="20">
+    <row r="6" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="20">
+    <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="20">
+      <c r="C7" s="8">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="20">
+    <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="20">
+    <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="17" t="s">
         <v>5</v>
@@ -1303,14 +1305,14 @@
       <c r="C10" s="8"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="20">
+    <row r="11" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="20">
+    <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -1319,21 +1321,21 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="20">
+    <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="20">
+    <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="20">
+    <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="18" t="s">
         <v>5</v>
@@ -1341,14 +1343,14 @@
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="20">
+    <row r="16" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="20">
+    <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>10</v>
       </c>
@@ -1357,21 +1359,21 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="20">
+    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="20">
+    <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="20">
+    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="19" t="s">
         <v>5</v>
@@ -1379,7 +1381,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="20">
+    <row r="21" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="19" t="s">
         <v>6</v>
@@ -1395,5 +1397,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE1881-F507-4687-A9E7-38FD43ED34CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52733B97-DB79-473B-B115-87DC3F8A0199}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1319,7 +1319,9 @@
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <v>76.52</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
@@ -1357,7 +1359,9 @@
       <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10">
+        <v>76.06</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52733B97-DB79-473B-B115-87DC3F8A0199}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220AA94F-7840-4A81-94FD-65B007B54BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1248,7 +1248,9 @@
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <v>78.040000000000006</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220AA94F-7840-4A81-94FD-65B007B54BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E90717-350A-4C48-93E3-DDDED006F4D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1290,7 +1290,9 @@
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>79.39</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
@@ -1330,7 +1332,9 @@
       <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>79.63</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E90717-350A-4C48-93E3-DDDED006F4D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B4B527-B666-4162-9ABE-C7DBA8CA2B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1374,7 +1374,9 @@
       <c r="B18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <v>79.78</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B4B527-B666-4162-9ABE-C7DBA8CA2B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06914B7B-F828-44C4-934F-07C7D87E42C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1272,9 @@
       <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>77.3</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
@@ -1314,7 +1316,9 @@
       <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>77.39</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
@@ -1356,7 +1360,9 @@
       <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9">
+        <v>77.91</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
@@ -1398,7 +1404,9 @@
       <c r="B21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <v>77.58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06914B7B-F828-44C4-934F-07C7D87E42C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1009A8-3CD6-4B90-836F-951A2F02055E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="13149" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED1B4D-1FC9-49CC-974D-A069222E61B9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1257,7 +1257,9 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>77.209999999999994</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
@@ -1301,7 +1303,9 @@
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>78.94</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
@@ -1345,7 +1349,9 @@
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9">
+        <v>79.09</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
@@ -1389,7 +1395,9 @@
       <c r="B19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10">
+        <v>79.47</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1009A8-3CD6-4B90-836F-951A2F02055E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E1E8E-968E-4FD1-BF73-EFFDF1324863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="13149" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3900" windowWidth="24686" windowHeight="13149" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet@MNIST" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED1B4D-1FC9-49CC-974D-A069222E61B9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
